--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,19 +825,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,19 +887,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>25600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,28 +964,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>26300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,19 +1006,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,22 +1104,25 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1096,28 +1136,31 @@
       <c r="K22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,28 +1232,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1212,28 +1264,31 @@
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1386,28 +1456,31 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,28 +1520,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1619,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,16 +1681,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,23 +1777,26 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1841,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1969,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2033,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,7 +2105,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,10 +2137,10 @@
         <v>1600</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>900</v>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2400</v>
       </c>
       <c r="J59" s="3">
         <v>2400</v>
       </c>
       <c r="K59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3400</v>
       </c>
       <c r="J76" s="3">
         <v>-3400</v>
       </c>
       <c r="K76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,62 +2747,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3162,14 +3414,14 @@
         <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,66 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +755,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,17 +862,17 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>25600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -922,8 +961,14 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>26300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1065,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,14 +1119,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1075,19 +1142,25 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1107,8 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1139,40 +1218,52 @@
       <c r="L22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-27700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-27700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,14 +1575,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1459,40 +1598,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,28 +1791,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1652,8 +1825,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,22 +1863,28 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1716,8 +1901,14 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,16 +1939,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1780,28 +1977,34 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -1812,8 +2015,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,23 +2053,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F48" s="3">
         <v>3800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1876,8 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,11 +2222,11 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,29 +2281,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2068,8 +2319,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,22 +2355,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2128,25 +2389,31 @@
       <c r="L57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
@@ -2160,72 +2427,90 @@
       <c r="L58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2541,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2579,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-48600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-47700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-18600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-18300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,19 +3228,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -2859,14 +3256,20 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3452,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3034,31 +3467,37 @@
         <v>-700</v>
       </c>
       <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,29 +3902,35 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -3435,6 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,28 +866,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>25600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -967,31 +987,34 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,37 +1044,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1056,8 +1083,11 @@
       <c r="N17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1068,25 +1098,25 @@
         <v>-1000</v>
       </c>
       <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,11 +1159,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,14 +1194,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1186,13 +1223,16 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1201,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1224,37 +1264,40 @@
       <c r="N22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,37 +1387,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1376,37 +1428,40 @@
       <c r="N26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
         <v>-1000</v>
       </c>
       <c r="F27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1581,11 +1651,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1604,37 +1674,40 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
         <v>-1000</v>
       </c>
       <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,37 +1756,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
         <v>-1000</v>
       </c>
       <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1718,51 +1797,57 @@
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,32 +1879,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,25 +1959,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,19 +2041,22 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1983,32 +2082,35 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,25 +2164,28 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>3500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3800</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2097,31 +2205,34 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3800</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2228,8 +2348,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2410,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +2497,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2375,7 +2506,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,16 +2541,16 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>1600</v>
       </c>
       <c r="H58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2445,34 +2582,37 @@
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2400</v>
       </c>
       <c r="M59" s="3">
         <v>2400</v>
       </c>
       <c r="N59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2480,42 +2620,45 @@
         <v>1000</v>
       </c>
       <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="E76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-3400</v>
       </c>
       <c r="M76" s="3">
         <v>-3400</v>
       </c>
       <c r="N76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,80 +3322,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
         <v>-1000</v>
       </c>
       <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,8 +3443,8 @@
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3262,14 +3461,17 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,13 +3672,16 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
         <v>-700</v>
@@ -3473,31 +3690,34 @@
         <v>-700</v>
       </c>
       <c r="G89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,32 +4157,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>300</v>
       </c>
       <c r="G102" s="3">
         <v>300</v>
       </c>
       <c r="H102" s="3">
+        <v>300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,31 +880,32 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>25600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,8 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1039,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,40 +1071,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,31 +1125,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="F18" s="3">
         <v>-1000</v>
       </c>
       <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1162,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,17 +1231,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,17 +1263,20 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1244,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1267,40 +1307,43 @@
       <c r="O22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,40 +1439,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1431,40 +1483,43 @@
       <c r="O26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1000</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
       </c>
       <c r="G27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1654,11 +1724,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1677,40 +1747,43 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1000</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,40 +1835,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1000</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,28 +2052,31 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,13 +2152,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2085,35 +2184,38 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2181,14 +2289,14 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2208,34 +2316,37 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2351,8 +2471,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,19 +2618,20 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2509,7 +2640,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2529,31 +2660,34 @@
       <c r="O57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1600</v>
       </c>
       <c r="H58" s="3">
         <v>1600</v>
       </c>
       <c r="I58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
@@ -2570,13 +2704,16 @@
       <c r="O58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
@@ -2585,84 +2722,90 @@
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2400</v>
       </c>
       <c r="N59" s="3">
         <v>2400</v>
       </c>
       <c r="O59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3400</v>
       </c>
       <c r="N76" s="3">
         <v>-3400</v>
       </c>
       <c r="O76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,86 +3514,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1000</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,8 +3645,8 @@
       <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,16 +3889,19 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-700</v>
@@ -3693,31 +3910,34 @@
         <v>-700</v>
       </c>
       <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,35 +4409,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>300</v>
       </c>
       <c r="H102" s="3">
         <v>300</v>
       </c>
       <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,34 +893,35 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>25600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1013,13 +1032,16 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1027,8 +1049,8 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1064,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,43 +1097,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1116,8 +1142,11 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,34 +1154,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1000</v>
       </c>
       <c r="G18" s="3">
         <v>-1000</v>
       </c>
       <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1199,11 +1232,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,20 +1267,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,20 +1302,23 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1287,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1310,43 +1349,46 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,43 +1490,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1486,43 +1537,46 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-1000</v>
       </c>
       <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1727,11 +1796,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1750,43 +1819,46 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-1000</v>
       </c>
       <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,43 +1913,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-1000</v>
       </c>
       <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2066,20 +2158,20 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2187,38 +2285,41 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2292,14 +2399,14 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2319,37 +2426,40 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2474,8 +2593,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,22 +2748,23 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2643,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2663,34 +2793,37 @@
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1600</v>
       </c>
       <c r="I58" s="3">
         <v>1600</v>
       </c>
       <c r="J58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>900</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
@@ -2707,16 +2840,19 @@
       <c r="P58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
@@ -2725,90 +2861,96 @@
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2400</v>
       </c>
       <c r="O59" s="3">
         <v>2400</v>
       </c>
       <c r="P59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3400</v>
       </c>
       <c r="O76" s="3">
         <v>-3400</v>
       </c>
       <c r="P76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,92 +3705,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-1000</v>
       </c>
       <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,8 +3846,8 @@
       <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3666,14 +3864,17 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,19 +4105,22 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-700</v>
       </c>
       <c r="G89" s="3">
         <v>-700</v>
@@ -3913,31 +4129,34 @@
         <v>-700</v>
       </c>
       <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,38 +4660,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>300</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>
       </c>
       <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,16 +789,22 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -828,16 +842,22 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,22 +920,24 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
@@ -918,17 +946,17 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1012,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>25600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1035,28 +1075,34 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1067,11 +1113,11 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-26300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1235,14 +1303,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,26 +1341,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,43 +1379,49 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-27700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-27700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-27700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1799,14 +1939,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-27700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-27700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,43 +2225,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>700</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,28 +2327,34 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2176,8 +2362,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2194,31 +2380,37 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2241,13 +2433,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2256,17 +2454,17 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2288,43 +2486,49 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>700</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2402,17 +2618,17 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2429,43 +2645,49 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2596,11 +2836,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,44 +2910,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,28 +3020,28 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -2796,40 +3058,46 @@
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>600</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>900</v>
       </c>
       <c r="N58" s="3">
         <v>900</v>
@@ -2843,120 +3111,138 @@
       <c r="Q58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>900</v>
+      </c>
+      <c r="S58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57500</v>
+        <v>-63200</v>
       </c>
       <c r="E72" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-54200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-52100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-50600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-49600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-48600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-47700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-27700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3849,11 +4247,11 @@
       <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>100</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3867,14 +4265,20 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-700</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,44 +5161,50 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>3600</v>
       </c>
       <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,19 +799,22 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -848,19 +855,22 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,34 +945,34 @@
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3">
+        <v>100</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,20 +1045,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1058,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>25600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,11 +1115,11 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1104,8 +1127,8 @@
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1119,8 +1142,8 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,52 +1178,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,43 +1244,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1000</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
       </c>
       <c r="K18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,14 +1322,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1309,11 +1343,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,29 +1378,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
       </c>
       <c r="G21" s="3">
         <v>-1600</v>
       </c>
       <c r="H21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,29 +1422,32 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>1600</v>
       </c>
       <c r="G22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1415,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1438,52 +1478,55 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,52 +1646,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1650,52 +1702,55 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1000</v>
       </c>
       <c r="J27" s="3">
         <v>-1000</v>
       </c>
       <c r="K27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,14 +1994,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1945,11 +2015,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1968,52 +2038,55 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1000</v>
       </c>
       <c r="J33" s="3">
         <v>-1000</v>
       </c>
       <c r="K33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,52 +2150,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1000</v>
       </c>
       <c r="J35" s="3">
         <v>-1000</v>
       </c>
       <c r="K35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2344,8 +2437,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2353,20 +2446,20 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,13 +2491,13 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2412,8 +2508,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2439,17 +2535,20 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2460,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,40 +2703,43 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2651,46 +2759,49 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E49" s="3">
         <v>3100</v>
       </c>
       <c r="F49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G49" s="3">
         <v>3200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3141,32 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3044,7 +3175,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3064,43 +3195,46 @@
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1600</v>
       </c>
       <c r="L58" s="3">
         <v>1600</v>
       </c>
       <c r="M58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>900</v>
       </c>
       <c r="O58" s="3">
         <v>900</v>
@@ -3117,25 +3251,28 @@
       <c r="S58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
@@ -3144,87 +3281,93 @@
         <v>700</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2400</v>
       </c>
       <c r="R59" s="3">
         <v>2400</v>
       </c>
       <c r="S59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,20 +3375,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-3400</v>
       </c>
       <c r="R76" s="3">
         <v>-3400</v>
       </c>
       <c r="S76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,110 +4281,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1000</v>
       </c>
       <c r="J81" s="3">
         <v>-1000</v>
       </c>
       <c r="K81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4253,8 +4452,8 @@
       <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,28 +4756,31 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
@@ -4572,31 +4789,34 @@
         <v>-700</v>
       </c>
       <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,47 +5416,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>300</v>
       </c>
       <c r="M102" s="3">
+        <v>300</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,16 +809,22 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -819,8 +832,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -858,16 +871,22 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -875,8 +894,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,31 +961,33 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
@@ -969,17 +996,17 @@
         <v>200</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,17 +1096,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1081,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>25600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1104,37 +1143,43 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1145,11 +1190,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>26300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-26300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,20 +1389,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1346,14 +1413,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,35 +1451,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,52 +1498,58 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-27700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-27700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-27700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,20 +2133,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2018,14 +2157,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-27700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-27700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,52 +2485,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>700</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2440,23 +2625,23 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2464,8 +2649,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2482,28 +2667,34 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2511,11 +2702,11 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2538,23 +2729,29 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2562,17 +2759,17 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2594,52 +2791,58 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F46" s="3">
         <v>8100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2732,20 +2947,20 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2762,52 +2977,58 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2965,11 +3204,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3287,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F54" s="3">
         <v>11100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,46 +3401,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3198,49 +3459,55 @@
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>900</v>
       </c>
       <c r="Q58" s="3">
         <v>900</v>
@@ -3254,120 +3521,138 @@
       <c r="T58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>900</v>
+      </c>
+      <c r="V58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,23 +3663,23 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-78300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-74800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-63000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-54200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-52100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-50600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-49600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-48600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-47700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-18300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F76" s="3">
         <v>8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-27700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4455,11 +4852,11 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4473,14 +4870,20 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E89" s="3">
         <v>-1900</v>
       </c>
       <c r="F89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-700</v>
       </c>
       <c r="L89" s="3">
         <v>-700</v>
       </c>
       <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>5600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,53 +5916,59 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>SOBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,14 +836,14 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,14 +901,14 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,43 +986,43 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>100</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,14 +1122,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1126,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>25600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1149,19 +1169,22 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="3">
         <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1169,11 +1192,11 @@
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1181,8 +1204,8 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>100</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1196,8 +1219,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,61 +1258,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>2800</v>
       </c>
       <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
       <c r="H17" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="I17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,52 +1333,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-600</v>
-      </c>
       <c r="H18" s="3">
-        <v>-3600</v>
+        <v>-1500</v>
       </c>
       <c r="I18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1000</v>
       </c>
       <c r="M18" s="3">
         <v>-1000</v>
       </c>
       <c r="N18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,23 +1423,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1419,11 +1453,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,38 +1488,38 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
-        <v>1100</v>
-      </c>
       <c r="H21" s="3">
-        <v>-3900</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>-1600</v>
+        <v>-3000</v>
       </c>
       <c r="J21" s="3">
         <v>-1600</v>
       </c>
       <c r="K21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,29 +1553,29 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1543,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1566,61 +1606,64 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,61 +1801,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1814,61 +1866,64 @@
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2900</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1000</v>
       </c>
       <c r="M27" s="3">
         <v>-1000</v>
       </c>
       <c r="N27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,23 +2203,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2163,11 +2233,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2186,61 +2256,64 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1000</v>
       </c>
       <c r="M33" s="3">
         <v>-1000</v>
       </c>
       <c r="N33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,61 +2386,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1000</v>
       </c>
       <c r="M35" s="3">
         <v>-1000</v>
       </c>
       <c r="N35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2631,8 +2724,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2640,20 +2733,20 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,7 +2778,7 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2691,13 +2787,13 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2708,8 +2804,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,17 +2843,17 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2765,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2797,56 +2896,59 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9000</v>
+        <v>6400</v>
       </c>
       <c r="E46" s="3">
         <v>9000</v>
       </c>
       <c r="F46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G46" s="3">
         <v>8100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,31 +3026,34 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2953,17 +3061,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2983,55 +3091,58 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3100</v>
       </c>
       <c r="H49" s="3">
         <v>3100</v>
       </c>
       <c r="I49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J49" s="3">
         <v>3200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3210,8 +3330,8 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,40 +3533,41 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3445,7 +3576,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3465,52 +3596,55 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1600</v>
       </c>
       <c r="O58" s="3">
         <v>1600</v>
       </c>
       <c r="P58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>900</v>
       </c>
       <c r="R58" s="3">
         <v>900</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,25 +3673,25 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
@@ -3563,104 +3700,110 @@
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2400</v>
       </c>
       <c r="U59" s="3">
         <v>2400</v>
       </c>
       <c r="V59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3669,20 +3812,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3713,31 +3856,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-80200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-57500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-50600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-3400</v>
       </c>
       <c r="U76" s="3">
         <v>-3400</v>
       </c>
       <c r="V76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,128 +4856,134 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1000</v>
       </c>
       <c r="M81" s="3">
         <v>-1000</v>
       </c>
       <c r="N81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4858,8 +5057,8 @@
       <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>100</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4876,14 +5075,17 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,37 +5406,40 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-700</v>
@@ -5231,31 +5448,34 @@
         <v>-700</v>
       </c>
       <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,56 +6171,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
-      </c>
-      <c r="N102" s="3">
-        <v>300</v>
       </c>
       <c r="O102" s="3">
         <v>300</v>
       </c>
       <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOBR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,14 +846,14 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,14 +914,14 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,43 +1003,43 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>500</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3">
+        <v>100</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,14 +1145,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1149,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>25600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,11 +1206,11 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1195,11 +1218,11 @@
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1207,8 +1230,8 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>100</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1222,8 +1245,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,64 +1285,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
       </c>
       <c r="N17" s="3">
         <v>1000</v>
       </c>
       <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,55 +1363,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1000</v>
       </c>
       <c r="N18" s="3">
         <v>-1000</v>
       </c>
       <c r="O18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,23 +1460,23 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1456,11 +1490,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,41 +1525,41 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1600</v>
       </c>
       <c r="K21" s="3">
         <v>-1600</v>
       </c>
       <c r="L21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +1596,7 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1565,20 +1605,20 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1586,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1609,64 +1649,67 @@
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,64 +1853,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
@@ -1869,64 +1921,67 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1000</v>
       </c>
       <c r="N27" s="3">
         <v>-1000</v>
       </c>
       <c r="O27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,23 +2276,23 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2236,11 +2306,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2259,64 +2329,67 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1000</v>
       </c>
       <c r="N33" s="3">
         <v>-1000</v>
       </c>
       <c r="O33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,64 +2465,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1000</v>
       </c>
       <c r="N35" s="3">
         <v>-1000</v>
       </c>
       <c r="O35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2727,8 +2820,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2736,20 +2829,20 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,7 +2877,7 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2790,13 +2886,13 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2807,8 +2903,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2834,29 +2930,32 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2867,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2899,59 +2998,62 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
         <v>6400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>9000</v>
       </c>
       <c r="F46" s="3">
         <v>9000</v>
       </c>
       <c r="G46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H46" s="3">
         <v>8100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,16 +3134,19 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>300</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -3055,8 +3163,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3064,17 +3172,17 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -3094,58 +3202,61 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3100</v>
       </c>
       <c r="I49" s="3">
         <v>3100</v>
       </c>
       <c r="J49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3333,8 +3453,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,43 +3664,44 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3579,7 +3710,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3599,55 +3730,58 @@
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1600</v>
       </c>
       <c r="P58" s="3">
         <v>1600</v>
       </c>
       <c r="Q58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,25 +3813,25 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
@@ -3703,111 +3840,117 @@
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2400</v>
       </c>
       <c r="V59" s="3">
         <v>2400</v>
       </c>
       <c r="W59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3815,20 +3958,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,10 +4014,10 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3885,8 +4031,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,64 +4286,67 @@
         <v>3500</v>
       </c>
       <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-80200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-18300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-3400</v>
       </c>
       <c r="V76" s="3">
         <v>-3400</v>
       </c>
       <c r="W76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="X76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,134 +5048,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1000</v>
       </c>
       <c r="N81" s="3">
         <v>-1000</v>
       </c>
       <c r="O81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5060,8 +5259,8 @@
       <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>100</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -5078,14 +5277,17 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,40 +5623,43 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
       </c>
       <c r="N89" s="3">
         <v>-700</v>
@@ -5451,31 +5668,34 @@
         <v>-700</v>
       </c>
       <c r="P89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,59 +6423,62 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
-      </c>
-      <c r="O102" s="3">
-        <v>300</v>
       </c>
       <c r="P102" s="3">
         <v>300</v>
       </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
